--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/VIRGINIA_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/VIRGINIA_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1092"/>
+  <dimension ref="A1:D1086"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -516,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="12">
@@ -529,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="13">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C25">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C27">
@@ -778,7 +778,7 @@
         <v>5</v>
       </c>
       <c r="D30">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="31">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C32">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C34">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C51">
@@ -1057,7 +1057,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C52">
@@ -1109,7 +1109,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C56">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C62">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C63">
@@ -1324,7 +1324,7 @@
         <v>5</v>
       </c>
       <c r="D72">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="73">
@@ -1569,7 +1569,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C91">
@@ -1621,7 +1621,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C95">
@@ -1654,7 +1654,7 @@
         <v>51</v>
       </c>
       <c r="D97">
-        <v>0.009617197812558929</v>
+        <v>0.009617197812558927</v>
       </c>
     </row>
     <row r="98">
@@ -1847,7 +1847,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C112">
@@ -1937,7 +1937,7 @@
         <v>5</v>
       </c>
       <c r="D118">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="119">
@@ -1995,7 +1995,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2052,7 +2052,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C127">
@@ -2246,7 +2246,7 @@
         <v>5</v>
       </c>
       <c r="D141">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="142">
@@ -2395,7 +2395,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C153">
@@ -2473,12 +2473,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C159">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C160">
@@ -2504,7 +2504,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C161">
@@ -2543,7 +2543,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C164">
@@ -2660,7 +2660,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C173">
@@ -2686,7 +2686,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C175">
@@ -2764,7 +2764,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C181">
@@ -2829,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C186">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C195">
@@ -3024,7 +3024,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C201">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C206">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C207">
@@ -3211,7 +3211,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C215">
@@ -3224,7 +3224,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C216">
@@ -3237,7 +3237,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C217">
@@ -3341,7 +3341,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C225">
@@ -3393,7 +3393,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C229">
@@ -3523,7 +3523,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C239">
@@ -3549,7 +3549,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C241">
@@ -3569,13 +3569,13 @@
         <v>5</v>
       </c>
       <c r="D242">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C243">
@@ -3588,20 +3588,20 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C244">
         <v>5</v>
       </c>
       <c r="D244">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C245">
@@ -3653,7 +3653,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C249">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C254">
@@ -3749,7 +3749,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C256">
@@ -3801,7 +3801,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C260">
@@ -3827,20 +3827,20 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C262">
         <v>5</v>
       </c>
       <c r="D262">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C263">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C265">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C266">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C267">
@@ -3931,7 +3931,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C270">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C274">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C277">
@@ -4035,14 +4035,14 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C278">
         <v>5</v>
       </c>
       <c r="D278">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="279">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C280">
@@ -4120,7 +4120,7 @@
         <v>5</v>
       </c>
       <c r="D284">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="285">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C293">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C295">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C297">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C301">
@@ -4367,7 +4367,7 @@
         <v>5</v>
       </c>
       <c r="D303">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="304">
@@ -4406,7 +4406,7 @@
         <v>5</v>
       </c>
       <c r="D306">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="307">
@@ -4508,7 +4508,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C314">
@@ -4573,7 +4573,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C319">
@@ -4599,7 +4599,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C321">
@@ -4638,7 +4638,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C324">
@@ -4677,7 +4677,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C327">
@@ -4742,7 +4742,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C332">
@@ -4755,7 +4755,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C333">
@@ -4768,7 +4768,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C334">
@@ -4794,14 +4794,14 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C336">
         <v>5</v>
       </c>
       <c r="D336">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="337">
@@ -4820,7 +4820,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C338">
@@ -4859,7 +4859,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C341">
@@ -4892,7 +4892,7 @@
         <v>5</v>
       </c>
       <c r="D343">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="344">
@@ -4911,14 +4911,14 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C345">
         <v>52</v>
       </c>
       <c r="D345">
-        <v>0.009805770318687535</v>
+        <v>0.009805770318687537</v>
       </c>
     </row>
     <row r="346">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C347">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C348">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C352">
@@ -5015,7 +5015,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C353">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C354">
@@ -5054,7 +5054,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C356">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C357">
@@ -5137,7 +5137,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C362">
@@ -5254,7 +5254,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C371">
@@ -5306,7 +5306,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C375">
@@ -5332,7 +5332,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C377">
@@ -5358,7 +5358,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C379">
@@ -5423,7 +5423,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C384">
@@ -5475,20 +5475,20 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C388">
         <v>5</v>
       </c>
       <c r="D388">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C389">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C390">
@@ -5514,7 +5514,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C391">
@@ -5527,7 +5527,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C392">
@@ -5592,7 +5592,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C397">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C399">
@@ -5631,7 +5631,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C400">
@@ -5683,7 +5683,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C404">
@@ -5696,7 +5696,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C405">
@@ -5709,7 +5709,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C406">
@@ -5729,7 +5729,7 @@
         <v>5</v>
       </c>
       <c r="D407">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="408">
@@ -5748,7 +5748,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C409">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C412">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C413">
@@ -5987,7 +5987,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C427">
@@ -6111,7 +6111,7 @@
         <v>5</v>
       </c>
       <c r="D436">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="437">
@@ -6696,7 +6696,7 @@
         <v>5</v>
       </c>
       <c r="D481">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="482">
@@ -6709,7 +6709,7 @@
         <v>5</v>
       </c>
       <c r="D482">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="483">
@@ -6753,13 +6753,13 @@
         <v>5</v>
       </c>
       <c r="D485">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C486">
@@ -6837,7 +6837,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C492">
@@ -6941,7 +6941,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C500">
@@ -6954,7 +6954,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C501">
@@ -6974,7 +6974,7 @@
         <v>5</v>
       </c>
       <c r="D502">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="503">
@@ -7039,7 +7039,7 @@
         <v>5</v>
       </c>
       <c r="D507">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="508">
@@ -7089,7 +7089,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C511">
@@ -7109,7 +7109,7 @@
         <v>5</v>
       </c>
       <c r="D512">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="513">
@@ -7128,14 +7128,14 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C514">
         <v>5</v>
       </c>
       <c r="D514">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="515">
@@ -7315,14 +7315,14 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C528">
         <v>5</v>
       </c>
       <c r="D528">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="529">
@@ -7385,14 +7385,14 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C533">
         <v>5</v>
       </c>
       <c r="D533">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="534">
@@ -7450,7 +7450,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C538">
@@ -7476,7 +7476,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C540">
@@ -7502,7 +7502,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C542">
@@ -7515,7 +7515,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C543">
@@ -7528,7 +7528,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C544">
@@ -7541,7 +7541,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C545">
@@ -7554,7 +7554,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C546">
@@ -7567,7 +7567,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C547">
@@ -7619,7 +7619,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C551">
@@ -7632,7 +7632,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C552">
@@ -7645,7 +7645,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C553">
@@ -7671,7 +7671,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C555">
@@ -7684,7 +7684,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C556">
@@ -7697,7 +7697,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C557">
@@ -7892,7 +7892,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C572">
@@ -7970,7 +7970,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C578">
@@ -7983,7 +7983,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C579">
@@ -8074,7 +8074,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C586">
@@ -8087,7 +8087,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C587">
@@ -8347,7 +8347,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C607">
@@ -8568,7 +8568,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C624">
@@ -8633,7 +8633,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C629">
@@ -8789,7 +8789,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C641">
@@ -9147,7 +9147,7 @@
         <v>5</v>
       </c>
       <c r="D668">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="669">
@@ -9270,7 +9270,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C678">
@@ -9413,7 +9413,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C689">
@@ -9426,7 +9426,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C690">
@@ -9439,7 +9439,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C691">
@@ -9452,7 +9452,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C692">
@@ -9465,7 +9465,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C693">
@@ -9478,7 +9478,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C694">
@@ -9491,7 +9491,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C695">
@@ -9517,7 +9517,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C697">
@@ -9530,7 +9530,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C698">
@@ -9543,7 +9543,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C699">
@@ -9569,20 +9569,20 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C701">
         <v>5</v>
       </c>
       <c r="D701">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C702">
@@ -9608,7 +9608,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C704">
@@ -9698,7 +9698,7 @@
         <v>5</v>
       </c>
       <c r="D710">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="711">
@@ -9802,7 +9802,7 @@
         <v>5</v>
       </c>
       <c r="D718">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="719">
@@ -9893,7 +9893,7 @@
         <v>5</v>
       </c>
       <c r="D725">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="726">
@@ -9951,7 +9951,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C730">
@@ -9990,7 +9990,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C733">
@@ -10029,7 +10029,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C736">
@@ -10120,7 +10120,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C743">
@@ -10172,7 +10172,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C747">
@@ -10341,7 +10341,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C760">
@@ -10354,14 +10354,14 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C761">
         <v>5</v>
       </c>
       <c r="D761">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="762">
@@ -10458,14 +10458,14 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C769">
         <v>5</v>
       </c>
       <c r="D769">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="770">
@@ -10497,7 +10497,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C772">
@@ -10523,7 +10523,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C774">
@@ -10536,7 +10536,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C775">
@@ -10562,7 +10562,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C777">
@@ -10827,7 +10827,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C797">
@@ -10853,7 +10853,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C799">
@@ -10905,7 +10905,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C803">
@@ -10918,7 +10918,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C804">
@@ -10951,13 +10951,13 @@
         <v>5</v>
       </c>
       <c r="D806">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C807">
@@ -10983,7 +10983,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C809">
@@ -11162,7 +11162,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C822">
@@ -11266,7 +11266,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C830">
@@ -11299,7 +11299,7 @@
         <v>5</v>
       </c>
       <c r="D832">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="833">
@@ -11364,20 +11364,20 @@
         <v>5</v>
       </c>
       <c r="D837">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C838">
         <v>5</v>
       </c>
       <c r="D838">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="839">
@@ -11435,7 +11435,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C843">
@@ -11455,7 +11455,7 @@
         <v>5</v>
       </c>
       <c r="D844">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="845">
@@ -11474,7 +11474,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C846">
@@ -11487,7 +11487,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C847">
@@ -11500,7 +11500,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C848">
@@ -11513,7 +11513,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C849">
@@ -11526,14 +11526,14 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C850">
         <v>5</v>
       </c>
       <c r="D850">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="851">
@@ -11873,7 +11873,7 @@
         <v>5</v>
       </c>
       <c r="D875">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="876">
@@ -11931,7 +11931,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C880">
@@ -12164,7 +12164,7 @@
         <v>5</v>
       </c>
       <c r="D897">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="898">
@@ -12222,7 +12222,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C902">
@@ -12422,7 +12422,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C917">
@@ -12435,7 +12435,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C918">
@@ -12513,7 +12513,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C924">
@@ -12546,7 +12546,7 @@
         <v>5</v>
       </c>
       <c r="D926">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="927">
@@ -12674,7 +12674,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C936">
@@ -12726,7 +12726,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C940">
@@ -12817,7 +12817,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C947">
@@ -12843,7 +12843,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C949">
@@ -12882,7 +12882,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C952">
@@ -12947,7 +12947,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C957">
@@ -13051,7 +13051,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C965">
@@ -13064,7 +13064,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C966">
@@ -13207,20 +13207,20 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C977">
         <v>5</v>
       </c>
       <c r="D977">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C978">
@@ -13259,7 +13259,7 @@
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C981">
@@ -13272,7 +13272,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C982">
@@ -13363,7 +13363,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C989">
@@ -13415,7 +13415,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C993">
@@ -13428,7 +13428,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C994">
@@ -13461,7 +13461,7 @@
         <v>5</v>
       </c>
       <c r="D996">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="997">
@@ -13552,7 +13552,7 @@
         <v>5</v>
       </c>
       <c r="D1003">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="1004">
@@ -13565,13 +13565,13 @@
         <v>5</v>
       </c>
       <c r="D1004">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1005">
@@ -13584,7 +13584,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1006">
@@ -13623,7 +13623,7 @@
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1009">
@@ -13708,13 +13708,13 @@
         <v>5</v>
       </c>
       <c r="D1015">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1016">
@@ -13753,7 +13753,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1019">
@@ -13792,7 +13792,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1022">
@@ -13916,7 +13916,7 @@
         <v>5</v>
       </c>
       <c r="D1031">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="1032">
@@ -14039,7 +14039,7 @@
     <row r="1041">
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1041">
@@ -14244,7 +14244,7 @@
     <row r="1056">
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1056">
@@ -14303,7 +14303,7 @@
         <v>5</v>
       </c>
       <c r="D1060">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="1061">
@@ -14400,7 +14400,7 @@
     <row r="1068">
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1068">
@@ -14413,7 +14413,7 @@
     <row r="1069">
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1069">
@@ -14426,7 +14426,7 @@
     <row r="1070">
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1070">
@@ -14439,7 +14439,7 @@
     <row r="1071">
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1071">
@@ -14472,7 +14472,7 @@
         <v>5</v>
       </c>
       <c r="D1073">
-        <v>0.0009428625306430323</v>
+        <v>0.0009428625306430324</v>
       </c>
     </row>
     <row r="1074">
@@ -14530,7 +14530,7 @@
     <row r="1078">
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1078">
@@ -14543,7 +14543,7 @@
     <row r="1079">
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1079">
@@ -14569,7 +14569,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1081">
@@ -14642,41 +14642,6 @@
       </c>
       <c r="D1086">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1088">
-      <c r="A1088" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="1089">
-      <c r="A1089" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1090">
-      <c r="A1090" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1091">
-      <c r="A1091" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1092">
-      <c r="A1092" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>
